--- a/3/main=2/3_main=2_SS.xlsx
+++ b/3/main=2/3_main=2_SS.xlsx
@@ -79,7 +79,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -95,6 +94,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -8353,7 +8420,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=20\gap=1.0\thickness=1.0\3_mai2_c2_l20_g1.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=20/gap=1.0/thickness=1.0/3_mai2_c2_l20_g1.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9883,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=20\gap=1.0\thickness=1.8\3_mai2_c2_l20_g1.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=20/gap=1.0/thickness=1.8/3_mai2_c2_l20_g1.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9928,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3761.395238095239</v>
+        <v>3761.39523809524</v>
       </c>
     </row>
     <row r="4">
@@ -11279,7 +11346,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=20\gap=2.0\thickness=1.0\3_mai2_c2_l20_g2.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=20/gap=2.0/thickness=1.0/3_mai2_c2_l20_g2.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -12770,7 +12837,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=20\gap=2.0\thickness=1.8\3_mai2_c2_l20_g2.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=20/gap=2.0/thickness=1.8/3_mai2_c2_l20_g2.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -12815,7 +12882,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3564.740158730159</v>
+        <v>3564.74015873016</v>
       </c>
     </row>
     <row r="4">
@@ -14233,7 +14300,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=20\gap=3.0\thickness=1.0\3_mai2_c2_l20_g3.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=20/gap=3.0/thickness=1.0/3_mai2_c2_l20_g3.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15791,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=20\gap=3.0\thickness=1.8\3_mai2_c2_l20_g3.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=20/gap=3.0/thickness=1.8/3_mai2_c2_l20_g3.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -15769,7 +15836,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3415.461428571428</v>
+        <v>3415.461428571429</v>
       </c>
     </row>
     <row r="4">
@@ -17187,7 +17254,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=30\gap=1.0\thickness=1.0\3_mai2_c2_l30_g1.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=30/gap=1.0/thickness=1.0/3_mai2_c2_l30_g1.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -18678,7 +18745,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=30\gap=1.0\thickness=1.8\3_mai2_c2_l30_g1.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=30/gap=1.0/thickness=1.8/3_mai2_c2_l30_g1.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -20141,7 +20208,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=30\gap=2.0\thickness=1.0\3_mai2_c2_l30_g2.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=30/gap=2.0/thickness=1.0/3_mai2_c2_l30_g2.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -21604,7 +21671,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=30\gap=2.0\thickness=1.8\3_mai2_c2_l30_g2.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=30/gap=2.0/thickness=1.8/3_mai2_c2_l30_g2.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -23099,7 +23166,7 @@
         <v>38.40642857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>4269.940158730159</v>
+        <v>4269.94015873016</v>
       </c>
     </row>
     <row r="3">
@@ -23125,7 +23192,7 @@
         <v>23.184</v>
       </c>
       <c r="C4" t="n">
-        <v>3519.207272727273</v>
+        <v>3519.207272727274</v>
       </c>
     </row>
     <row r="5">
@@ -23151,7 +23218,7 @@
         <v>23.18628571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>3337.795238095238</v>
+        <v>3337.795238095239</v>
       </c>
     </row>
     <row r="7">
@@ -23203,7 +23270,7 @@
         <v>27.84314285714286</v>
       </c>
       <c r="C10" t="n">
-        <v>3761.395238095239</v>
+        <v>3761.39523809524</v>
       </c>
     </row>
     <row r="11">
@@ -23229,7 +23296,7 @@
         <v>26.03514285714286</v>
       </c>
       <c r="C12" t="n">
-        <v>3564.740158730159</v>
+        <v>3564.74015873016</v>
       </c>
     </row>
     <row r="13">
@@ -23255,7 +23322,7 @@
         <v>25.829</v>
       </c>
       <c r="C14" t="n">
-        <v>3415.461428571428</v>
+        <v>3415.461428571429</v>
       </c>
     </row>
     <row r="15">
@@ -23346,7 +23413,7 @@
         <v>23.134</v>
       </c>
       <c r="C21" t="n">
-        <v>3647.705974025975</v>
+        <v>3647.705974025974</v>
       </c>
     </row>
     <row r="22">
@@ -23385,7 +23452,7 @@
         <v>27.45571428571429</v>
       </c>
       <c r="C24" t="n">
-        <v>3862.140158730158</v>
+        <v>3862.140158730159</v>
       </c>
     </row>
     <row r="25">
@@ -23437,7 +23504,7 @@
         <v>28.93214285714286</v>
       </c>
       <c r="C28" t="n">
-        <v>4025.349148629149</v>
+        <v>4025.34914862915</v>
       </c>
     </row>
     <row r="29">
@@ -23463,7 +23530,7 @@
         <v>26.67028571428571</v>
       </c>
       <c r="C30" t="n">
-        <v>889.0103174603174</v>
+        <v>889.010317460318</v>
       </c>
     </row>
   </sheetData>
@@ -23508,7 +23575,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=30\gap=3.0\thickness=1.0\3_mai2_c2_l30_g3.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=30/gap=3.0/thickness=1.0/3_mai2_c2_l30_g3.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -25027,7 +25094,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=30\gap=3.0\thickness=1.8\3_mai2_c2_l30_g3.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=30/gap=3.0/thickness=1.8/3_mai2_c2_l30_g3.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -26490,7 +26557,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=10\sita=15\3_mai2_kasa_l10_sita15.csv</t>
+          <t>3/main=2/kasa/lap=10/sita=15/3_mai2_kasa_l10_sita15.csv</t>
         </is>
       </c>
     </row>
@@ -26535,7 +26602,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3647.705974025975</v>
+        <v>3647.705974025974</v>
       </c>
     </row>
     <row r="4">
@@ -28009,7 +28076,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=10\sita=30\3_mai2_kasa_l10_sita30.csv</t>
+          <t>3/main=2/kasa/lap=10/sita=30/3_mai2_kasa_l10_sita30.csv</t>
         </is>
       </c>
     </row>
@@ -29528,7 +29595,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=10\sita=8\3_mai2_kasa_l10_sita8.csv</t>
+          <t>3/main=2/kasa/lap=10/sita=8/3_mai2_kasa_l10_sita8.csv</t>
         </is>
       </c>
     </row>
@@ -30991,7 +31058,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=20\sita=15\3_mai2_kasa_l20_sita15.csv</t>
+          <t>3/main=2/kasa/lap=20/sita=15/3_mai2_kasa_l20_sita15.csv</t>
         </is>
       </c>
     </row>
@@ -31036,7 +31103,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3862.140158730158</v>
+        <v>3862.140158730159</v>
       </c>
     </row>
     <row r="4">
@@ -32454,7 +32521,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=20\sita=30\3_mai2_kasa_l20_sita30.csv</t>
+          <t>3/main=2/kasa/lap=20/sita=30/3_mai2_kasa_l20_sita30.csv</t>
         </is>
       </c>
     </row>
@@ -33945,7 +34012,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=20\sita=8\3_mai2_kasa_l20_sita8.csv</t>
+          <t>3/main=2/kasa/lap=20/sita=8/3_mai2_kasa_l20_sita8.csv</t>
         </is>
       </c>
     </row>
@@ -35464,7 +35531,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=30\sita=15\3_mai2_kasa_l30_sita15.csv</t>
+          <t>3/main=2/kasa/lap=30/sita=15/3_mai2_kasa_l30_sita15.csv</t>
         </is>
       </c>
     </row>
@@ -36941,7 +37008,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=30\sita=30\3_mai2_kasa_l30_sita30.csv</t>
+          <t>3/main=2/kasa/lap=30/sita=30/3_mai2_kasa_l30_sita30.csv</t>
         </is>
       </c>
     </row>
@@ -36986,7 +37053,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4025.349148629149</v>
+        <v>4025.34914862915</v>
       </c>
     </row>
     <row r="4">
@@ -38460,7 +38527,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp1\3_mai_c1.csv</t>
+          <t>3/main=2/cfrp1/3_mai_c1.csv</t>
         </is>
       </c>
     </row>
@@ -38505,7 +38572,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4269.940158730159</v>
+        <v>4269.94015873016</v>
       </c>
     </row>
     <row r="4">
@@ -39923,7 +39990,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\kasa\lap=30\sita=8\3_mai2_kasa_l30_sita8.csv</t>
+          <t>3/main=2/kasa/lap=30/sita=8/3_mai2_kasa_l30_sita8.csv</t>
         </is>
       </c>
     </row>
@@ -41386,7 +41453,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\single\epoxy\3_mai_sin_epo.csv</t>
+          <t>3/main=2/single/epoxy/3_mai_sin_epo.csv</t>
         </is>
       </c>
     </row>
@@ -41431,7 +41498,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>889.0103174603174</v>
+        <v>889.010317460318</v>
       </c>
     </row>
     <row r="4">
@@ -42849,7 +42916,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=10\gap=1.0\thickness=1.0\3_mai2_c2_l10_g1.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=10/gap=1.0/thickness=1.0/3_mai2_c2_l10_g1.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -44312,7 +44379,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=10\gap=1.0\thickness=1.8\3_mai2_c2_l10_g1.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=10/gap=1.0/thickness=1.8/3_mai2_c2_l10_g1.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -44357,7 +44424,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3519.207272727273</v>
+        <v>3519.207272727274</v>
       </c>
     </row>
     <row r="4">
@@ -45789,7 +45856,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=10\gap=2.0\thickness=1.0\3_mai2_c2_l10_g2.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=10/gap=2.0/thickness=1.0/3_mai2_c2_l10_g2.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -47308,7 +47375,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=10\gap=2.0\thickness=1.8\3_mai2_c2_l10_g2.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=10/gap=2.0/thickness=1.8/3_mai2_c2_l10_g2.0_th1.8.csv</t>
         </is>
       </c>
     </row>
@@ -47353,7 +47420,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3337.795238095238</v>
+        <v>3337.795238095239</v>
       </c>
     </row>
     <row r="4">
@@ -48771,7 +48838,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=10\gap=3.0\thickness=1.0\3_mai2_c2_l10_g3.0_th1.0.csv</t>
+          <t>3/main=2/cfrp2/lap=10/gap=3.0/thickness=1.0/3_mai2_c2_l10_g3.0_th1.0.csv</t>
         </is>
       </c>
     </row>
@@ -50262,7 +50329,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3\main=2\cfrp2\lap=10\gap=3.0\thickness=1.8\3_mai2_c2_l10_g3.0_th1.8.csv</t>
+          <t>3/main=2/cfrp2/lap=10/gap=3.0/thickness=1.8/3_mai2_c2_l10_g3.0_th1.8.csv</t>
         </is>
       </c>
     </row>
